--- a/gd/技能逻辑/大招逻辑.xlsx
+++ b/gd/技能逻辑/大招逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="大招流程图" sheetId="6" r:id="rId4"/>
     <sheet name="大招通用特效需求" sheetId="5" r:id="rId5"/>
     <sheet name="配置表" sheetId="2" r:id="rId6"/>
+    <sheet name="大招方式记录" sheetId="7" r:id="rId7"/>
+    <sheet name="大招总体流程" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="346">
   <si>
     <t>法术系大招</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -367,10 +369,6 @@
   </si>
   <si>
     <t>2.需要配置大招的施法时间长度（玩家大招不响应）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>preparetime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -866,129 +864,540 @@
     <t>把对局里的“大招施法特效逻辑”粘贴过来</t>
   </si>
   <si>
+    <t>施法特效时长</t>
+  </si>
+  <si>
+    <t>施法特效逻辑：</t>
+  </si>
+  <si>
+    <t>怪物通过AI判定具体释放大招的行动X，通过读取技能配置得到大招的施法特效时长n，则怪物释放大招的行动为X+n</t>
+  </si>
+  <si>
+    <t>表现为A怪物在自己的X行动时开始施法特效，持续施法特效n行动后，释放大招</t>
+  </si>
+  <si>
+    <t>假设A怪物大招施法特效行动配置为3，AI判定在A的第2次行动释放大招</t>
+  </si>
+  <si>
+    <t>A施法特效表现</t>
+  </si>
+  <si>
+    <t>雪姬文档写物理大招不需要施法特效（删）</t>
+  </si>
+  <si>
+    <t>1.施法特效结束紧跟爆点特效而后消失（1s）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄气改描述为施法特效，爆点特效与施法特效分开描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.处在施法阶段的大招可打断（方式待定(施法怪物死亡肯定算一种)）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可打断时机：大招施法阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断配置结构见 配置表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断配置结构</t>
+  </si>
+  <si>
+    <t>打断几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#物理伤害次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>injuryTimes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interruptChance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断效果：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.被打断大招的怪物，能量依旧扣除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.大招被打断后，被打断大招怪物直接回到行动序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法怪物死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被物理技能伤害次数，判定是否被打断，即不同的伤害次数对应一个打断成功率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理技能伤害次数：指技能（spell）调用的伤害事件（effect：type=damage，damagetype=0（物理））且命中的次数，即怪物放大招时被物理技能攻击后需要统计触发了几次命中的damage事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加打断逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同法术大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物施法特效破碎（具体见美术需求文档）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打断怪物身上出现“被打断"字样(具体文字及出现逻辑同伤害数字)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加打断表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体怪物行动暂停，怪物施法特效爆点（有点像拳皇的大招），播放大招动画（包括怪物特写与大招动作，幕布变化）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.5.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加大招流程分页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>敌人怪物大招：增加施法特效逻辑，是为了提示玩家敌人要放大招了，并给玩家留出应对时间</t>
-  </si>
-  <si>
-    <t>施法特效时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>敌方怪物大招施法时长：施法特效占用的行动次数（从释放大招时行动记1）</t>
-  </si>
-  <si>
-    <t>施法特效逻辑：</t>
-  </si>
-  <si>
-    <t>怪物通过AI判定具体释放大招的行动X，通过读取技能配置得到大招的施法特效时长n，则怪物释放大招的行动为X+n</t>
-  </si>
-  <si>
-    <t>表现为A怪物在自己的X行动时开始施法特效，持续施法特效n行动后，释放大招</t>
-  </si>
-  <si>
-    <t>假设A怪物大招施法特效行动配置为3，AI判定在A的第2次行动释放大招</t>
-  </si>
-  <si>
-    <t>A施法特效表现</t>
-  </si>
-  <si>
-    <t>雪姬文档写物理大招不需要施法特效（删）</t>
-  </si>
-  <si>
-    <t>1.施法特效结束紧跟爆点特效而后消失（1s）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄气改描述为施法特效，爆点特效与施法特效分开描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.处在施法阶段的大招可打断（方式待定(施法怪物死亡肯定算一种)）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可打断时机：大招施法阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断配置结构见 配置表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断配置结构</t>
-  </si>
-  <si>
-    <t>打断几率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TEXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#物理伤害次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>injuryTimes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interruptChance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断效果：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.被打断大招的怪物，能量依旧扣除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.大招被打断后，被打断大招怪物直接回到行动序列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法怪物死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被物理技能伤害次数，判定是否被打断，即不同的伤害次数对应一个打断成功率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理技能伤害次数：指技能（spell）调用的伤害事件（effect：type=damage，damagetype=0（物理））且命中的次数，即怪物放大招时被物理技能攻击后需要统计触发了几次命中的damage事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加打断逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同法术大招</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断表现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物施法特效破碎（具体见美术需求文档）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被打断怪物身上出现“被打断"字样(具体文字及出现逻辑同伤害数字)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加打断表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物施法特殊逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若物理技能未在规定时间内释放完成，则播放失败音效（和上一个失败音效不同）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术特效在释放时，最后一段时间的特效也带有减速模糊震动效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理特效在规定时间内释放的规定次数的最后一下带有减速模糊震动效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并带有失败音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术画阵失败后，显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并带有成功音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术画阵成功后，显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考 妖怪手表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集聚阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招伤害同普通技能，按照怪物攻击的百分比，多定义最多可打击的次数，倒计时时长，需求能量，释放方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招释放完毕后，该怪物回到行动序列作出攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物集聚时，暂停该怪的任何攻击，保持为施法状态（该状态可打断，打断后大招失败）,释放大招时暂停全部怪物攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊逻辑：符文会一直出，直到成功释放或玩家自动取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮：玩家点击关闭按钮即退出释放大招操作（返还能量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标：群体怪物或AI选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>拖动符文方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>屏幕上如右图，符文从中间出现，分为金木水火土，玩家需要将符文拖动至对应处（符文爆裂闪光后消失，若拖动至非对应处则无任何反馈），背景改为黑色半透（玩家可以看到后面的战斗同时不影响拖动符文），玩家需要拖动相应数量符文数，等待所有怪物当前已释放技能结束即可放出大招，释放大招时所有怪物行动暂停</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊逻辑：符文会一直飞出，直到成功释放或玩家自动取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>乐动达人方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>屏幕上如右图，符文从中间随机向5个点方向飞出，玩家需要在符文飞到绿圈处点击符文（点击后符文爆裂闪光后消失，若玩家未点击符文则符文持续飞出屏幕），背景改为黑色半透（玩家可以看到后面的战斗同时不影响点击符文），玩家需要点击相应数量符文数，等待所有怪物当前已释放技能结束即可放出大招，释放大招时所有怪物行动暂停</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家操作失败：玩家操作线路重置，玩家可重新操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>屏保解锁方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在屏幕上显示一个法阵标示玩家需要画出的法阵样子和滑动路线，背景改为黑色半透（玩家可以看到后面的战斗同时不影响画法阵），玩家需要按照提示画出相应图案（玩家手指滑动即验证，若图案正确则退出画阵界面），等待所有怪物当前已释放技能结束即可放出大招，释放大招时所有怪物行动暂停</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术系大招：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集聚时屏蔽所有可操作按钮（除加速键），添加关闭按钮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能特效：除瞄准镜范围内及关闭、加速、fight按钮，其余地方变暗，点击fight后可以为玻璃弹孔特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时：玩家在倒计时内完成了几次规定次数内的操作及及时结算几次的操作，到达倒计时则退出释放大招模式所有怪物继续行动序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮：玩家点击关闭按钮即退出释放大招操作，若玩家已有操作及关闭按钮变为屏蔽状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight按钮：出现在屏幕下方居中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标：瞄准目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示方式：手指在准心上滑动，fight大小闪动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>弱点射击方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家手指拖动瞄准镜射击对方怪物，瞄准镜内仍可看到已被照妖镜发现的弱点,玩家可拖动准心瞄准怪物并射击，若瞄准的为怪物弱点则伤害加深（大招定义可射击几次，点击fight即算作一次并及时结算）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能特效：手指点击为击打特效，被击打的怪物身上爆伤害数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标：玩家手指点击碰触到的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示方式：手指点击特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连环点击方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手指点击一次怪物视为攻击该该怪物一次（大招定义可点击几次，手指点击离开后即算作一次并及时结算）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能特效：玩家手指滑动起点与终点的连线未松手时表现为带箭头的线段，玩家手指滑动起点与终点的连线松手时表现为斩击特效，被斩击怪物身上爆伤害数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能方式待考虑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时：玩家在限定时间内完成了几次规定次数内的操作及及时结算几次的操作，到达限定时间则退出释放大招模式所有怪物继续行动序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮：玩家点击关闭按钮即退出释放大招操作（返还能量），若玩家已有操作则关闭按钮变为屏蔽状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标：玩家手指滑动起点与终点连线穿过的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示方式：手指滑动特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切水果方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示出玩家手指起点与终点的连线，若穿过怪物区域则视为攻击到该怪物（若穿过弱点区域则伤害加深）（大招定义玩家可滑动次数，手指滑动离开后即算作一次并及时结算）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理系大招：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释放时屏蔽所有可操作按钮（屏蔽加速按钮），在屏幕右下方添加关闭按钮，玩家需要在倒计时内完成操作（若在规定时间内完成最大次数则退出大招）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放大招操作方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择跟普通技能的区别：每种大招会有不同的目标选择方式，一部分是根据玩家操作选择，另一部分根据AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放大招方式，玩家大招按钮，该怪物即进入释放大招集聚模式，等待所有怪物当前已释放技能结束即可释放大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量可以通过怪物使用技能获得，当怪物能量攒满时，怪物的技能按钮闪烁提示大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物释放大招需要1格能量（暂定100点），玩家点击技能按钮时扣除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（本怪行动暂停）</t>
+  </si>
+  <si>
+    <t>（本怪行动暂停）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物恢复行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体怪物行动暂停，屏蔽按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待所有怪物当前已释放技能结束</t>
+  </si>
+  <si>
+    <t>玩家操作（画阵）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击大招图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>————————</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集聚阶段</t>
+  </si>
+  <si>
+    <t>施法阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -996,19 +1405,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全体怪物行动暂停，怪物施法特效爆点（有点像拳皇的大招），播放大招动画（包括怪物特写与大招动作，幕布变化）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ver 0.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.5.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加大招流程分页</t>
+    <t>（本怪物行动暂停）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物恢复行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体怪物行动暂停，屏蔽按钮，玩家操作（倒计时）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击大招图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集聚阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理系大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指法术系输出或dot类的大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指物理系输出的大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物大招逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> … …</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前边没有说达到次数就退出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文中没说不屏蔽加速按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击大招就扣除能量么？那能量返还的时候岂不是超了？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击技能图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跪求策划学一下流程图QAQ，规范的流程图看着也顺畅，俗话说无规矩不成方圆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个流程图没有起点，没有中断，判断框中得条件也不对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.5.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改怪物释放大招释放阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通过AI释放大招，直接进入大招施法阶段一直持续到该怪物下一次行动进入释放阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置在技能中，n-1为怪物施法阶段所占的行动数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在场上的玩家怪物与目前在场上的对方怪物的基础速度和，换怪时需要重置该值：减去换下去怪物的基础速度加上换上怪物的基础速度也可以换怪后重新算一遍速度和（大瑱瑱确定下）；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n（配置中的preparetime）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通过AI释放大招，清除累计速度时，直接累计速度（场上全体怪物速度和/n）一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场上全体怪物速度和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在怪物进入大招施法阶段时，完全按照新的速度累积速度(场上全体怪物速度和/n)计算出手行动；当怪物释放大招后或大招被打断后，重置该怪物速度为原速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,8 +1615,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,6 +1659,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,7 +1879,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,8 +1887,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1398,9 +1953,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1417,6 +1969,52 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1461,9 +2059,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3 2" xfId="1"/>
+    <cellStyle name="常规 8" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4740,12 +5339,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>590553</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>96561</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>471403</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>521615</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>138977</xdr:rowOff>
     </xdr:to>
@@ -4756,10 +5355,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1276353" y="725211"/>
-          <a:ext cx="8796250" cy="10729466"/>
-          <a:chOff x="1148939" y="226597"/>
-          <a:chExt cx="8202370" cy="8343185"/>
+          <a:off x="1276353" y="953811"/>
+          <a:ext cx="9532262" cy="10500866"/>
+          <a:chOff x="1148939" y="404355"/>
+          <a:chExt cx="8888690" cy="8165427"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -4769,10 +5368,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="1148939" y="226597"/>
-            <a:ext cx="8202370" cy="8343185"/>
-            <a:chOff x="1148939" y="-131991"/>
-            <a:chExt cx="8202370" cy="8343185"/>
+            <a:off x="1148939" y="404355"/>
+            <a:ext cx="8888690" cy="8165427"/>
+            <a:chOff x="1148939" y="45767"/>
+            <a:chExt cx="8888690" cy="8165427"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -4782,10 +5381,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="1148939" y="-131991"/>
-              <a:ext cx="8202370" cy="8343185"/>
-              <a:chOff x="1148939" y="-131991"/>
-              <a:chExt cx="8202370" cy="8343185"/>
+              <a:off x="1148939" y="45767"/>
+              <a:ext cx="8888690" cy="8165427"/>
+              <a:chOff x="1148939" y="45767"/>
+              <a:chExt cx="8888690" cy="8165427"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -4795,10 +5394,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1148939" y="-131991"/>
-                <a:ext cx="8202370" cy="8042546"/>
-                <a:chOff x="1249792" y="-143197"/>
-                <a:chExt cx="8202370" cy="8042546"/>
+                <a:off x="1148939" y="45767"/>
+                <a:ext cx="8888690" cy="7864788"/>
+                <a:chOff x="1249792" y="34561"/>
+                <a:chExt cx="8888690" cy="7864788"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:grpSp>
@@ -4808,10 +5407,10 @@
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="1249792" y="-143197"/>
-                  <a:ext cx="8202370" cy="8042546"/>
-                  <a:chOff x="1005044" y="-128056"/>
-                  <a:chExt cx="8228893" cy="8210904"/>
+                  <a:off x="1249792" y="34561"/>
+                  <a:ext cx="8888690" cy="7864788"/>
+                  <a:chOff x="1005044" y="53423"/>
+                  <a:chExt cx="8917432" cy="8029425"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:sp macro="" textlink="">
@@ -5610,7 +6209,7 @@
                 </xdr:blipFill>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="7661289" y="-128056"/>
+                    <a:off x="8596906" y="53423"/>
                     <a:ext cx="1325570" cy="1290209"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
@@ -6841,6 +7440,3284 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1390474" cy="1352381"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="14058900"/>
+          <a:ext cx="1390474" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="加号 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2689823">
+          <a:off x="4181475" y="14744699"/>
+          <a:ext cx="819150" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16291"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="同心圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="14306550"/>
+          <a:ext cx="523875" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 15667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16002000" y="9429750"/>
+          <a:ext cx="733425" cy="666750"/>
+          <a:chOff x="8601075" y="8582025"/>
+          <a:chExt cx="847725" cy="866775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="椭圆 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8601075" y="8601075"/>
+            <a:ext cx="828675" cy="819150"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="加号 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8601075" y="8582025"/>
+            <a:ext cx="847725" cy="866775"/>
+          </a:xfrm>
+          <a:prstGeom prst="mathPlus">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 1048"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="组合 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="601066">
+          <a:off x="17164050" y="9429750"/>
+          <a:ext cx="1828800" cy="809625"/>
+          <a:chOff x="12211050" y="9658350"/>
+          <a:chExt cx="1857375" cy="828675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="爆炸形 1 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12211050" y="9658350"/>
+            <a:ext cx="1857375" cy="828675"/>
+          </a:xfrm>
+          <a:prstGeom prst="irregularSeal1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="2000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="文本框 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12725400" y="9791700"/>
+            <a:ext cx="806696" cy="532390"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>Fight</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171035</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="626165"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096375" y="8743535"/>
+          <a:ext cx="762000" cy="626165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="组合 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22879050" y="11868149"/>
+          <a:ext cx="3409950" cy="2790825"/>
+          <a:chOff x="9782175" y="12449175"/>
+          <a:chExt cx="3371849" cy="2514600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="椭圆 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10877550" y="13382625"/>
+            <a:ext cx="704850" cy="657225"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              <a:t>符文出现区域</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="同心圆 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11010900" y="12449175"/>
+            <a:ext cx="533400" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="donut">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 15667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="同心圆 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12553949" y="13439774"/>
+            <a:ext cx="600075" cy="581025"/>
+          </a:xfrm>
+          <a:prstGeom prst="donut">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 15667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="同心圆 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11696700" y="14449425"/>
+            <a:ext cx="533400" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="donut">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 15667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="同心圆 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10153650" y="14420850"/>
+            <a:ext cx="533400" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="donut">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 15667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="同心圆 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9782175" y="13182600"/>
+            <a:ext cx="533400" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="donut">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 15667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="椭圆 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12230099" y="13401675"/>
+            <a:ext cx="657226" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              <a:t>符文出现区域</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="13544550"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="组合 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16163925" y="14649450"/>
+          <a:ext cx="3324224" cy="2514600"/>
+          <a:chOff x="13201650" y="14249400"/>
+          <a:chExt cx="3371849" cy="2514600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="22" name="组合 21"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13201650" y="14249400"/>
+            <a:ext cx="3371849" cy="2514600"/>
+            <a:chOff x="9782175" y="12449175"/>
+            <a:chExt cx="3371849" cy="2514600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="椭圆 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10972800" y="13268325"/>
+              <a:ext cx="704850" cy="657225"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
+                <a:t>符文出现区域</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="同心圆 28"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11010900" y="12449175"/>
+              <a:ext cx="533400" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="donut">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 15667"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="同心圆 29"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12553949" y="13439774"/>
+              <a:ext cx="600075" cy="581025"/>
+            </a:xfrm>
+            <a:prstGeom prst="donut">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 15667"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="同心圆 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11696700" y="14449425"/>
+              <a:ext cx="533400" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="donut">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 15667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="同心圆 31"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10153650" y="14420850"/>
+              <a:ext cx="533400" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="donut">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 15667"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="同心圆 32"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9782175" y="13182600"/>
+              <a:ext cx="533400" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="donut">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 15667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="文本框 22"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13287375" y="15106650"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
+              <a:t>木</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="文本框 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14516100" y="14373225"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
+              <a:t>金</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="文本框 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13696950" y="16354425"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              <a:t>水</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="文本框 25"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15220950" y="16354425"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              <a:t>火</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="文本框 26"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16097250" y="15373350"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              <a:t>土</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="虚尾箭头 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="5934075"/>
+          <a:ext cx="3476625" cy="95249"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91908</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309145</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>25065</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="组合 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2289342" y="802105"/>
+          <a:ext cx="9015329" cy="12181973"/>
+          <a:chOff x="944656" y="13505"/>
+          <a:chExt cx="8406653" cy="9847671"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="组合 2"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="944656" y="226597"/>
+            <a:ext cx="8406653" cy="9634579"/>
+            <a:chOff x="944656" y="-131991"/>
+            <a:chExt cx="8406653" cy="9634579"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="6" name="组合 5"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="944656" y="-131991"/>
+              <a:ext cx="8406653" cy="9634579"/>
+              <a:chOff x="944656" y="-131991"/>
+              <a:chExt cx="8406653" cy="9634579"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="9" name="组合 8"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="944656" y="-131991"/>
+                <a:ext cx="8406653" cy="9634579"/>
+                <a:chOff x="1045509" y="-143197"/>
+                <a:chExt cx="8406653" cy="9634579"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="12" name="组合 11"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="1045509" y="-143197"/>
+                  <a:ext cx="8406653" cy="8209439"/>
+                  <a:chOff x="800100" y="-128056"/>
+                  <a:chExt cx="8433837" cy="8381297"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="18" name="流程图: 决策 17"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2562225" y="390525"/>
+                    <a:ext cx="1743075" cy="962025"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartDecision">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>玩家怪物能量攒满</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="19" name="直接箭头连接符 5"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="18" idx="3"/>
+                    <a:endCxn id="21" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4305300" y="871538"/>
+                    <a:ext cx="309562" cy="709614"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="20" name="直接箭头连接符 6"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="18" idx="1"/>
+                    <a:endCxn id="36" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm rot="10800000" flipV="1">
+                    <a:off x="2152651" y="871538"/>
+                    <a:ext cx="409574" cy="823912"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="矩形 20"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3733799" y="1581152"/>
+                    <a:ext cx="1762125" cy="320146"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>扣除能量，开始集聚阶段</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="流程图: 决策 21"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3762375" y="2686050"/>
+                    <a:ext cx="1704975" cy="901512"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartDecision">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>大招类型</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="21" idx="2"/>
+                    <a:endCxn id="22" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4614862" y="1901298"/>
+                    <a:ext cx="1" cy="784752"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="straightConnector1">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="24" name="直接箭头连接符 18"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="22" idx="3"/>
+                    <a:endCxn id="26" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5467350" y="3136806"/>
+                    <a:ext cx="1503892" cy="863692"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="25" name="直接箭头连接符 21"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="22" idx="1"/>
+                    <a:endCxn id="7" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm rot="10800000" flipV="1">
+                    <a:off x="2365003" y="3136806"/>
+                    <a:ext cx="1397372" cy="302030"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="矩形 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5872101" y="4000499"/>
+                    <a:ext cx="2198281" cy="832509"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>随机</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-Hans" sz="1100">
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>roll</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>一张</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>已有</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>法阵给予玩家操作（释放大招怪物行动暂停），屏蔽除加速外按钮，添加关闭按钮</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="流程图: 决策 26"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="6010275" y="5191124"/>
+                    <a:ext cx="1924050" cy="962026"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartDecision">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>图案是否滑动正确</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="矩形 27"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7738511" y="6661754"/>
+                    <a:ext cx="1495426" cy="724042"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                      <a:lnSpc>
+                        <a:spcPct val="100000"/>
+                      </a:lnSpc>
+                      <a:spcBef>
+                        <a:spcPts val="0"/>
+                      </a:spcBef>
+                      <a:spcAft>
+                        <a:spcPts val="0"/>
+                      </a:spcAft>
+                      <a:buClrTx/>
+                      <a:buSzTx/>
+                      <a:buFontTx/>
+                      <a:buNone/>
+                      <a:tabLst/>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>等待所有怪物当前已释放技能结束时释放大招</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                      <a:lnSpc>
+                        <a:spcPct val="100000"/>
+                      </a:lnSpc>
+                      <a:spcBef>
+                        <a:spcPts val="0"/>
+                      </a:spcBef>
+                      <a:spcAft>
+                        <a:spcPts val="0"/>
+                      </a:spcAft>
+                      <a:buClrTx/>
+                      <a:buSzTx/>
+                      <a:buFontTx/>
+                      <a:buNone/>
+                      <a:tabLst/>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>，全部怪物行动暂停</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-Hans" altLang="zh-Hans">
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="矩形 28"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5219700" y="6724651"/>
+                    <a:ext cx="1085850" cy="304800"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>重置玩家线路</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="30" name="直接箭头连接符 36"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="27" idx="3"/>
+                    <a:endCxn id="28" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7934325" y="5672137"/>
+                    <a:ext cx="551899" cy="989616"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="31" name="直接箭头连接符 39"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="27" idx="1"/>
+                    <a:endCxn id="29" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm rot="10800000" flipV="1">
+                    <a:off x="5762625" y="5672137"/>
+                    <a:ext cx="247650" cy="1052514"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="32" name="直接箭头连接符 42"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="29" idx="1"/>
+                    <a:endCxn id="27" idx="1"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm rot="10800000" flipH="1">
+                    <a:off x="5219699" y="5672137"/>
+                    <a:ext cx="790575" cy="1204914"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector3">
+                    <a:avLst>
+                      <a:gd name="adj1" fmla="val -28916"/>
+                    </a:avLst>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="33" name="流程图: 决策 32"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="1514475" y="5267325"/>
+                    <a:ext cx="1704975" cy="990600"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartDecision">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>各种不同方式</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="34" name="矩形 33"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2962275" y="7742963"/>
+                    <a:ext cx="981075" cy="510278"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>根据玩家操作释放技能</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="26" idx="2"/>
+                    <a:endCxn id="27" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="6971242" y="4833008"/>
+                    <a:ext cx="1058" cy="358116"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="straightConnector1">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="36" name="矩形 35"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="1609726" y="1695450"/>
+                    <a:ext cx="1085850" cy="266700"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>不可释放大招</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="37" name="文本框 36"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3171825" y="2895600"/>
+                    <a:ext cx="466794" cy="275717"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>物理</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="38" name="文本框 37"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5572125" y="2905125"/>
+                    <a:ext cx="466794" cy="275717"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>法术</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="39" name="直接箭头连接符 21"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="33" idx="1"/>
+                    <a:endCxn id="43" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm rot="10800000" flipV="1">
+                    <a:off x="1290639" y="5762625"/>
+                    <a:ext cx="223837" cy="1104900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="40" name="直接箭头连接符 21"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="33" idx="3"/>
+                    <a:endCxn id="41" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3219450" y="5762625"/>
+                    <a:ext cx="233363" cy="1162050"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="41" name="矩形 40"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2962275" y="6924675"/>
+                    <a:ext cx="981075" cy="523875"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>提示玩家点击操作</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="42" name="直接箭头连接符 21"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="41" idx="2"/>
+                    <a:endCxn id="34" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3452813" y="7448550"/>
+                    <a:ext cx="0" cy="294413"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="straightConnector1">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="43" name="矩形 42"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="800100" y="6867525"/>
+                    <a:ext cx="981075" cy="523875"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>提示玩家滑动操作</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="44" name="矩形 43"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="800100" y="7753350"/>
+                    <a:ext cx="981075" cy="476180"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>根据玩家操作释放技能</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="45" name="直接箭头连接符 21"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="43" idx="2"/>
+                    <a:endCxn id="44" idx="0"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="1290638" y="7391400"/>
+                    <a:ext cx="0" cy="361950"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="straightConnector1">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="3">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="46" name="文本框 45"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3476625" y="5712875"/>
+                    <a:ext cx="333375" cy="952172"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>连环点击</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="47" name="文本框 46"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="956874" y="5787212"/>
+                    <a:ext cx="333375" cy="854954"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                      <a:t>切水果</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="48" name="图片 47"/>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7878000" y="-128056"/>
+                    <a:ext cx="1108859" cy="1079278"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+              </xdr:pic>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="13" name="矩形 12"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1729068" y="4174507"/>
+                  <a:ext cx="1755401" cy="778033"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>全体怪物动作暂停，</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="zh-Hans" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>屏蔽除加速外按钮，添加关闭按钮</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>，开启倒计时</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-Hans" altLang="zh-Hans">
+                    <a:effectLst/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="13" idx="2"/>
+                  <a:endCxn id="33" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2606768" y="4952540"/>
+                  <a:ext cx="553" cy="189012"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="15" name="矩形 14"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2024343" y="8620125"/>
+                  <a:ext cx="1157567" cy="871257"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>到达规定次数</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+                    <a:t>/</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>倒计时结束，所有怪物回到正常行动序列</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="16" name="直接箭头连接符 21"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="34" idx="2"/>
+                  <a:endCxn id="15" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="5400000">
+                  <a:off x="2869459" y="7799911"/>
+                  <a:ext cx="553882" cy="1086545"/>
+                </a:xfrm>
+                <a:prstGeom prst="bentConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val 50000"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="17" name="直接箭头连接符 21"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="44" idx="2"/>
+                  <a:endCxn id="15" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="16200000" flipH="1">
+                  <a:off x="1780245" y="7797242"/>
+                  <a:ext cx="577103" cy="1068661"/>
+                </a:xfrm>
+                <a:prstGeom prst="bentConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val 50000"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="10" name="矩形 9"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7944971" y="7474323"/>
+                <a:ext cx="1322292" cy="522071"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  <a:t>释放结束，怪物回到正常行动序列</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="28" idx="2"/>
+                <a:endCxn id="10" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8606006" y="7227795"/>
+                <a:ext cx="111" cy="246529"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent5"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="矩形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1759324" y="3361765"/>
+              <a:ext cx="1490381" cy="470648"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US">
+                  <a:effectLst/>
+                  <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                </a:rPr>
+                <a:t>等待所有怪物当前已释放技能结束</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-Hans" altLang="en-US">
+                  <a:effectLst/>
+                  <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                </a:rPr>
+                <a:t>时释放大招</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-Hans" altLang="zh-Hans">
+                <a:effectLst/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="7" idx="2"/>
+              <a:endCxn id="13" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2504515" y="3832413"/>
+              <a:ext cx="1401" cy="353300"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="圆角矩形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2969558" y="13505"/>
+            <a:ext cx="1210235" cy="538139"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              <a:t>玩家点击图标释放大招</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="2"/>
+            <a:endCxn id="18" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3569830" y="551644"/>
+            <a:ext cx="4846" cy="182901"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -7106,8 +10983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7132,10 +11009,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -7166,10 +11043,10 @@
     </row>
     <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -7200,10 +11077,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
@@ -7234,10 +11111,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="12"/>
@@ -7283,7 +11160,7 @@
     </row>
     <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -7300,17 +11177,17 @@
     </row>
     <row r="12" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -7320,14 +11197,14 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -7337,14 +11214,14 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -7354,14 +11231,14 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -7371,14 +11248,14 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -7388,16 +11265,16 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -7407,14 +11284,14 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -7424,14 +11301,14 @@
     <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -7455,25 +11332,25 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -7485,17 +11362,17 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="9"/>
@@ -7508,143 +11385,150 @@
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="18"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="27" t="s">
-        <v>151</v>
+      <c r="M23" s="26" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>198</v>
+        <v>146</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="28" t="s">
-        <v>200</v>
+      <c r="M24" s="27" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="E25" s="26"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="27" t="s">
-        <v>201</v>
+      <c r="H25" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="27" t="s">
-        <v>202</v>
+      <c r="L25" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E26" s="26"/>
-      <c r="H26" s="28" t="s">
+      <c r="E26" s="25"/>
+      <c r="H26" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E27" s="25"/>
+      <c r="H27" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="K26" s="28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E27" s="26"/>
-      <c r="H27" s="28" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E28" s="25"/>
+      <c r="H28" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E28" s="26"/>
-      <c r="H28" s="28" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E29" s="25"/>
+      <c r="H29" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E29" s="26"/>
-      <c r="H29" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E30" s="24"/>
+      <c r="E30" s="23"/>
       <c r="H30" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E31" s="24"/>
-      <c r="H31" s="29" t="s">
-        <v>241</v>
+      <c r="E31" s="23"/>
+      <c r="H31" s="28" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E32" s="24"/>
-      <c r="H32" s="29" t="s">
-        <v>246</v>
+      <c r="E32" s="23"/>
+      <c r="H32" s="28" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7673,6 +11557,7 @@
     <hyperlink ref="H28" location="物理大招基础逻辑!D75" display="详细描述怪物AI释放物理大招为直接调用技能"/>
     <hyperlink ref="H31" location="法术大招基础逻辑!B96" display="添加打断逻辑"/>
     <hyperlink ref="H32" location="法术大招基础逻辑!C105" display="添加打断表现"/>
+    <hyperlink ref="H34" location="法术大招基础逻辑!D95" display="修改怪物释放大招释放阶段"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7680,10 +11565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7695,7 +11580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B1" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -7705,7 +11590,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -7731,7 +11616,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
@@ -7747,7 +11632,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -7762,36 +11647,36 @@
     </row>
     <row r="13" spans="1:17" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D14" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
+      <c r="D14" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -7823,7 +11708,7 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.15">
@@ -7851,17 +11736,17 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.15">
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E27" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -7874,7 +11759,7 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -7897,7 +11782,7 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.15">
       <c r="D31" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.15">
@@ -7932,27 +11817,27 @@
     </row>
     <row r="40" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="D40" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
@@ -8005,13 +11890,13 @@
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D50" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E51" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P51" s="3"/>
     </row>
@@ -8025,12 +11910,12 @@
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D54" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D55" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.15">
@@ -8045,7 +11930,7 @@
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D58" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -8059,7 +11944,7 @@
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.15">
@@ -8069,7 +11954,7 @@
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D61" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -8080,45 +11965,45 @@
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D67" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D68" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B69" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C70" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K70" s="3"/>
     </row>
@@ -8129,7 +12014,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -8147,7 +12032,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8172,554 +12057,838 @@
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C76" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
+      <c r="C76" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C77" s="24"/>
-      <c r="D77" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
       <c r="Q77" s="22"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="22"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C79" s="30"/>
+      <c r="D79" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="3"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="3"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C82" s="30"/>
+      <c r="D82" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="22"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C79" s="24"/>
-      <c r="D79" s="25" t="s">
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25" t="s">
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="3"/>
-    </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="25" t="s">
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C82" s="24"/>
-      <c r="D82" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24" t="s">
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" s="30"/>
+      <c r="K87" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="L87" s="30"/>
+      <c r="M87" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="N87" s="30"/>
+      <c r="O87" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="P87" s="30"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C92" s="30"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J92" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="D87" s="3"/>
-      <c r="E87" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="L87" s="3"/>
-      <c r="M87" s="23" t="s">
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C93" s="30"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="30"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="N87" s="3"/>
-      <c r="O87" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="I89" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="I92" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J92" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="O94" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B96" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
-      <c r="T96" s="24"/>
-      <c r="U96" s="24"/>
-      <c r="V96" s="24"/>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B97" s="24"/>
-      <c r="C97" s="24" t="s">
+      <c r="P94" s="30"/>
+    </row>
+    <row r="95" spans="3:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="35"/>
+      <c r="D95" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+    </row>
+    <row r="96" spans="3:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+    </row>
+    <row r="97" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+    </row>
+    <row r="98" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+    </row>
+    <row r="99" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="G99" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+    </row>
+    <row r="100" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="35"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+    </row>
+    <row r="101" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="35"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+    </row>
+    <row r="102" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B110" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="23"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="23"/>
+      <c r="S110" s="23"/>
+      <c r="T110" s="23"/>
+      <c r="U110" s="23"/>
+      <c r="V110" s="23"/>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B111" s="23"/>
+      <c r="C111" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="23"/>
+      <c r="P111" s="23"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23"/>
+      <c r="S111" s="23"/>
+      <c r="T111" s="23"/>
+      <c r="U111" s="23"/>
+      <c r="V111" s="23"/>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="23"/>
+      <c r="P112" s="23"/>
+      <c r="Q112" s="23"/>
+      <c r="R112" s="23"/>
+      <c r="S112" s="23"/>
+      <c r="T112" s="23"/>
+      <c r="U112" s="23"/>
+      <c r="V112" s="23"/>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="23"/>
+      <c r="P113" s="23"/>
+      <c r="Q113" s="23"/>
+      <c r="R113" s="23"/>
+      <c r="S113" s="23"/>
+      <c r="T113" s="23"/>
+      <c r="U113" s="23"/>
+      <c r="V113" s="23"/>
+    </row>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="23"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="23"/>
+      <c r="Q114" s="23"/>
+      <c r="R114" s="23"/>
+      <c r="S114" s="23"/>
+      <c r="T114" s="23"/>
+      <c r="U114" s="23"/>
+      <c r="V114" s="23"/>
+    </row>
+    <row r="115" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B115" s="23"/>
+      <c r="C115" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="23"/>
+      <c r="P115" s="23"/>
+      <c r="Q115" s="23"/>
+      <c r="R115" s="23"/>
+      <c r="S115" s="23"/>
+      <c r="T115" s="23"/>
+      <c r="U115" s="23"/>
+      <c r="V115" s="23"/>
+    </row>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B116" s="23"/>
+      <c r="C116" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="23"/>
+      <c r="M116" s="23"/>
+      <c r="N116" s="23"/>
+      <c r="O116" s="23"/>
+      <c r="P116" s="23"/>
+      <c r="Q116" s="23"/>
+      <c r="R116" s="23"/>
+      <c r="S116" s="23"/>
+      <c r="T116" s="23"/>
+      <c r="U116" s="23"/>
+      <c r="V116" s="23"/>
+    </row>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="23"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23"/>
+      <c r="O117" s="23"/>
+      <c r="P117" s="23"/>
+      <c r="Q117" s="23"/>
+      <c r="R117" s="23"/>
+      <c r="S117" s="23"/>
+      <c r="T117" s="23"/>
+      <c r="U117" s="23"/>
+      <c r="V117" s="23"/>
+    </row>
+    <row r="118" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B118" s="23"/>
+      <c r="C118" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="23"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="23"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="23"/>
+      <c r="V118" s="23"/>
+    </row>
+    <row r="119" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B119" s="23"/>
+      <c r="C119" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
-      <c r="R97" s="24"/>
-      <c r="S97" s="24"/>
-      <c r="T97" s="24"/>
-      <c r="U97" s="24"/>
-      <c r="V97" s="24"/>
-    </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
-      <c r="T99" s="24"/>
-      <c r="U99" s="24"/>
-      <c r="V99" s="24"/>
-    </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="24"/>
-      <c r="T100" s="24"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24"/>
-    </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B101" s="24"/>
-      <c r="C101" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
-      <c r="T101" s="24"/>
-      <c r="U101" s="24"/>
-      <c r="V101" s="24"/>
-    </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B102" s="24"/>
-      <c r="C102" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
-      <c r="T102" s="24"/>
-      <c r="U102" s="24"/>
-      <c r="V102" s="24"/>
-    </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="24"/>
-      <c r="S103" s="24"/>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
-      <c r="V103" s="24"/>
-    </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B104" s="24"/>
-      <c r="C104" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="24"/>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
-      <c r="T104" s="24"/>
-      <c r="U104" s="24"/>
-      <c r="V104" s="24"/>
-    </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B105" s="24"/>
-      <c r="C105" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24"/>
-      <c r="O105" s="24"/>
-      <c r="P105" s="24"/>
-      <c r="Q105" s="24"/>
-      <c r="R105" s="24"/>
-      <c r="S105" s="24"/>
-      <c r="T105" s="24"/>
-      <c r="U105" s="24"/>
-      <c r="V105" s="24"/>
-    </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="24"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
-      <c r="T106" s="24"/>
-      <c r="U106" s="24"/>
-      <c r="V106" s="24"/>
-    </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="24"/>
-      <c r="U107" s="24"/>
-      <c r="V107" s="24"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="23"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="23"/>
+      <c r="U119" s="23"/>
+      <c r="V119" s="23"/>
+    </row>
+    <row r="120" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="23"/>
+      <c r="N120" s="23"/>
+      <c r="O120" s="23"/>
+      <c r="P120" s="23"/>
+      <c r="Q120" s="23"/>
+      <c r="R120" s="23"/>
+      <c r="S120" s="23"/>
+      <c r="T120" s="23"/>
+      <c r="U120" s="23"/>
+      <c r="V120" s="23"/>
+    </row>
+    <row r="121" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="23"/>
+      <c r="P121" s="23"/>
+      <c r="Q121" s="23"/>
+      <c r="R121" s="23"/>
+      <c r="S121" s="23"/>
+      <c r="T121" s="23"/>
+      <c r="U121" s="23"/>
+      <c r="V121" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8733,8 +12902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8745,7 +12914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B1" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -8783,16 +12952,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="G6" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="1" t="s">
         <v>69</v>
       </c>
@@ -8820,24 +12989,24 @@
     </row>
     <row r="12" spans="1:17" ht="66" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+        <v>161</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
@@ -8862,7 +13031,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
@@ -8872,7 +13041,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
@@ -8882,19 +13051,19 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="s">
@@ -8904,22 +13073,22 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
@@ -8929,24 +13098,24 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
+        <v>158</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
@@ -8961,26 +13130,26 @@
     </row>
     <row r="56" spans="1:17" ht="33" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
+      <c r="D57" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D58" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
@@ -9024,22 +13193,22 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D68" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E69" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B71" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.15">
@@ -9050,7 +13219,7 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>87</v>
@@ -9059,32 +13228,32 @@
     </row>
     <row r="75" spans="1:21" ht="33" x14ac:dyDescent="0.15">
       <c r="A75" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
-      <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="3"/>
@@ -9094,25 +13263,25 @@
       <c r="I76" s="3"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C78" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" s="24"/>
+      <c r="C78" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="23"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C79" s="24"/>
-      <c r="D79" s="24" t="s">
-        <v>183</v>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C82" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -9126,8 +13295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9156,37 +13325,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -9201,7 +13370,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9225,7 +13394,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -9266,7 +13435,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>88</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>36</v>
@@ -9295,7 +13464,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -9318,7 +13487,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>46</v>
@@ -9331,7 +13500,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -9340,7 +13509,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -9353,18 +13522,18 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -9403,4 +13572,824 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK105"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="39.125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E6" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C8" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C9" s="6"/>
+      <c r="D9" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C11" s="6"/>
+      <c r="E11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C13" s="6"/>
+      <c r="H13" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C14" s="6"/>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="H18" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C19" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C23" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C27" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" s="38"/>
+      <c r="D28" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" s="38"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A33" s="38"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E37" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F38" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F39" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F40" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F41" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F42" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" s="38"/>
+      <c r="E44" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A45" s="38"/>
+      <c r="F45" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F46" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F47" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F48" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="F49" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="F50" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="40"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="D59" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A60" s="38"/>
+      <c r="E60" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="F61" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="F62" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="F63" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="E65" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+    </row>
+    <row r="66" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="F66" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="F67" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="F68" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="E70" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7"/>
+    </row>
+    <row r="71" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="F71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF71" s="36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="F72" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="F73" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="C76" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="D77" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="D78" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="3:37" x14ac:dyDescent="0.15">
+      <c r="D79" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C81" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D82" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E84" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E87" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D91" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E92" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E93" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E94" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C96" s="6"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C105" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A5:I59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="114" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I15" s="43"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/gd/技能逻辑/大招逻辑.xlsx
+++ b/gd/技能逻辑/大招逻辑.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="409">
   <si>
     <t>法术系大招</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -710,10 +710,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.爆点特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>紫色向内汇聚的气团</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -899,10 +895,6 @@
   </si>
   <si>
     <t>打断表现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物施法特效破碎（具体见美术需求文档）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1834,10 +1826,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>倒计时文字颜色/大小/字体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>提示信息文字颜色/大小/字体</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1978,6 +1966,31 @@
   </si>
   <si>
     <t>3.此时慢动作修正值=0.5，持续2s；若玩家开启了加速则实际速度=普通速度v*加速修正值*慢动作修正值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时文字颜色/大小/字体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.爆点特效(与蓄气特效有关联)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大招阶段，请点击怪物释放大招
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物施法特效消失</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2378,7 +2391,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2510,6 +2523,14 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2552,8 +2573,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6827,15 +6846,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9379</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142798</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628504</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6852,7 +6871,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2266950" y="1409700"/>
+          <a:off x="2200275" y="1495425"/>
           <a:ext cx="1171429" cy="619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10944,7 +10963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -11138,17 +11157,17 @@
     </row>
     <row r="12" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -11161,11 +11180,11 @@
         <v>108</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -11178,11 +11197,11 @@
         <v>109</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -11195,11 +11214,11 @@
         <v>110</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -11212,11 +11231,11 @@
         <v>111</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -11231,11 +11250,11 @@
       <c r="C17" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -11248,11 +11267,11 @@
         <v>114</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -11265,11 +11284,11 @@
         <v>115</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -11371,10 +11390,10 @@
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="25"/>
@@ -11383,14 +11402,14 @@
         <v>134</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
@@ -11398,93 +11417,93 @@
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
       <c r="H25" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E26" s="25"/>
       <c r="H26" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E27" s="25"/>
       <c r="H27" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E28" s="25"/>
       <c r="H28" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E29" s="25"/>
       <c r="H29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E30" s="23"/>
       <c r="H30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E31" s="23"/>
       <c r="H31" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E32" s="23"/>
       <c r="H32" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E35" s="45"/>
       <c r="H35" s="46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.35">
@@ -11492,7 +11511,7 @@
       <c r="C36" s="10"/>
       <c r="E36" s="45"/>
       <c r="H36" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
@@ -11500,7 +11519,7 @@
       <c r="C37" s="10"/>
       <c r="E37" s="48"/>
       <c r="H37" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
@@ -11508,7 +11527,7 @@
       <c r="C38" s="10"/>
       <c r="E38" s="45"/>
       <c r="H38" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.35">
@@ -11516,7 +11535,7 @@
       <c r="C39" s="10"/>
       <c r="E39" s="45"/>
       <c r="H39" s="46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.35">
@@ -11524,7 +11543,7 @@
       <c r="C40" s="10"/>
       <c r="E40" s="45"/>
       <c r="H40" s="27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.35">
@@ -11532,7 +11551,7 @@
       <c r="C41" s="10"/>
       <c r="E41" s="45"/>
       <c r="H41" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.35">
@@ -11540,7 +11559,7 @@
       <c r="C42" s="10"/>
       <c r="E42" s="45"/>
       <c r="H42" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.35">
@@ -11548,7 +11567,7 @@
       <c r="C43" s="10"/>
       <c r="E43" s="45"/>
       <c r="H43" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
@@ -11556,7 +11575,7 @@
       <c r="C44" s="10"/>
       <c r="E44" s="48"/>
       <c r="H44" s="46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.35">
@@ -11564,10 +11583,10 @@
       <c r="C45" s="10"/>
       <c r="E45" s="48"/>
       <c r="H45" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L45" s="27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.35">
@@ -11575,13 +11594,13 @@
       <c r="C46" s="10"/>
       <c r="E46" s="48"/>
       <c r="H46" s="27" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L46" s="27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.35">
@@ -11589,7 +11608,7 @@
       <c r="C47" s="10"/>
       <c r="E47" s="48"/>
       <c r="H47" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L47" s="27"/>
     </row>
@@ -11598,7 +11617,7 @@
       <c r="C48" s="10"/>
       <c r="E48" s="48"/>
       <c r="H48" s="46" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L48" s="27"/>
     </row>
@@ -11672,8 +11691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11695,7 +11714,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -11721,7 +11740,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -11760,7 +11779,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D14" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -11798,7 +11817,7 @@
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -11827,7 +11846,7 @@
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.15">
       <c r="E19" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -11853,7 +11872,7 @@
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.15">
@@ -11890,12 +11909,12 @@
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.15">
       <c r="E26" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -11932,7 +11951,7 @@
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.15">
       <c r="E29" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -11955,12 +11974,12 @@
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -11984,7 +12003,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E37" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -12014,7 +12033,7 @@
         <v>46</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
@@ -12105,7 +12124,7 @@
     <row r="53" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -12126,12 +12145,12 @@
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D56" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.15">
@@ -12230,7 +12249,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -12274,7 +12293,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C78" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
@@ -12313,7 +12332,7 @@
       <c r="C80" s="23"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
@@ -12331,7 +12350,7 @@
     <row r="81" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C81" s="29"/>
       <c r="D81" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -12351,7 +12370,7 @@
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
       <c r="E82" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="30"/>
@@ -12388,7 +12407,7 @@
     <row r="84" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C84" s="29"/>
       <c r="D84" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -12408,7 +12427,7 @@
       <c r="C85" s="29"/>
       <c r="D85" s="29"/>
       <c r="E85" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -12427,7 +12446,7 @@
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
       <c r="E86" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
@@ -12446,7 +12465,7 @@
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
       <c r="E87" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
@@ -12581,7 +12600,7 @@
         <v>165</v>
       </c>
       <c r="J94" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K94" s="29"/>
       <c r="L94" s="29"/>
@@ -12627,7 +12646,7 @@
     <row r="97" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C97" s="34"/>
       <c r="D97" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E97" s="34"/>
       <c r="F97" s="34"/>
@@ -12646,7 +12665,7 @@
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="E98" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
@@ -12664,7 +12683,7 @@
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
       <c r="E99" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
@@ -12683,11 +12702,11 @@
       <c r="D100" s="34"/>
       <c r="E100" s="34"/>
       <c r="F100" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G100" s="34"/>
       <c r="H100" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I100" s="34"/>
       <c r="J100" s="34"/>
@@ -12703,10 +12722,10 @@
       <c r="D101" s="34"/>
       <c r="E101" s="34"/>
       <c r="F101" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G101" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H101" s="34"/>
       <c r="I101" s="34"/>
@@ -12722,7 +12741,7 @@
       <c r="C102" s="34"/>
       <c r="D102" s="44"/>
       <c r="E102" s="34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
@@ -12806,7 +12825,7 @@
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B112" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
@@ -12832,7 +12851,7 @@
     <row r="113" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B113" s="23"/>
       <c r="C113" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="23"/>
@@ -12858,7 +12877,7 @@
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
@@ -12883,7 +12902,7 @@
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
@@ -12908,7 +12927,7 @@
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
@@ -12932,7 +12951,7 @@
     <row r="117" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B117" s="23"/>
       <c r="C117" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
@@ -12957,10 +12976,10 @@
     <row r="118" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B118" s="23"/>
       <c r="C118" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D118" s="23" t="s">
         <v>213</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>214</v>
       </c>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
@@ -12985,7 +13004,7 @@
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
@@ -13009,7 +13028,7 @@
     <row r="120" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B120" s="23"/>
       <c r="C120" s="23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
@@ -13035,7 +13054,7 @@
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
       <c r="D121" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -13059,7 +13078,7 @@
     <row r="122" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B122" s="23"/>
       <c r="C122" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
@@ -13085,7 +13104,7 @@
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
       <c r="D123" s="23" t="s">
-        <v>223</v>
+        <v>408</v>
       </c>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
@@ -13110,7 +13129,7 @@
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
       <c r="D124" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
@@ -13143,8 +13162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13199,7 +13218,7 @@
         <v>64</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -13233,7 +13252,7 @@
         <v>149</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -13282,7 +13301,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
@@ -13292,7 +13311,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E22" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -13331,7 +13350,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E25" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -13351,7 +13370,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E26" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -13376,7 +13395,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E28" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -13417,22 +13436,22 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -13477,7 +13496,7 @@
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C33" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -13490,7 +13509,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -13899,7 +13918,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -13996,7 +14015,7 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="K67" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.15">
@@ -14015,7 +14034,7 @@
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -14043,7 +14062,7 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>82</v>
@@ -14055,7 +14074,7 @@
         <v>170</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -14088,7 +14107,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C78" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D78" s="23"/>
     </row>
@@ -14100,12 +14119,12 @@
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C82" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -14150,157 +14169,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="B2" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="C2" s="49" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="D2" s="49">
+        <v>2</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="D3" s="49">
+        <v>2</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="D4" s="49">
+        <v>2</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D5" s="49">
+        <v>1</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="49">
         <v>2</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="63">
-        <v>2</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="63">
-        <v>2</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63" t="s">
+      <c r="D7" s="49">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D8" s="49">
         <v>1</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="D6" s="63">
-        <v>2</v>
-      </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63" t="s">
+      <c r="D9" s="49">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="D8" s="63">
-        <v>1</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63" t="s">
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>399</v>
       </c>
-      <c r="D9" s="63">
-        <v>1</v>
-      </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63" t="s">
+      <c r="D12" s="50">
+        <v>13</v>
+      </c>
+      <c r="E12" s="50">
+        <v>12</v>
+      </c>
+      <c r="F12" s="49" t="s">
         <v>400</v>
-      </c>
-      <c r="D10" s="63">
-        <v>1</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" s="63">
-        <v>0</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="D12" s="64">
-        <v>13</v>
-      </c>
-      <c r="E12" s="64">
-        <v>12</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -14311,10 +14330,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -14324,7 +14343,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -14334,116 +14353,131 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>172</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C22" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C85" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C103" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C105" s="4" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+      <c r="G105" s="51"/>
+      <c r="H105" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C107" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
+      </c>
+      <c r="G107" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -14482,7 +14516,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -14517,13 +14551,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -14597,7 +14631,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -14610,18 +14644,18 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -14678,23 +14712,23 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="E4" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
@@ -14704,18 +14738,18 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="E6" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C8" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
@@ -14724,46 +14758,46 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C11" s="6"/>
       <c r="E11" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C13" s="6"/>
       <c r="H13" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
@@ -14777,66 +14811,66 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="E16" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H18" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C19" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D20" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -14847,17 +14881,17 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C23" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D24" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -14872,18 +14906,18 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C27" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" s="37"/>
       <c r="D28" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -14908,7 +14942,7 @@
       <c r="A29" s="37"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -14932,7 +14966,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
@@ -14955,7 +14989,7 @@
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
@@ -14978,7 +15012,7 @@
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
@@ -15002,7 +15036,7 @@
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
@@ -15023,12 +15057,12 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
@@ -15091,69 +15125,69 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F38" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F39" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F40" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F41" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F42" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="37"/>
       <c r="E44" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="37"/>
       <c r="F45" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F46" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F47" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F48" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F49" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F50" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:34" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15161,13 +15195,13 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.15">
       <c r="D59" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A60" s="37"/>
       <c r="E60" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -15201,22 +15235,22 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F61" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F62" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F63" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="3:37" x14ac:dyDescent="0.15">
       <c r="E65" s="36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -15253,22 +15287,22 @@
     </row>
     <row r="66" spans="3:37" x14ac:dyDescent="0.15">
       <c r="F66" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="3:37" x14ac:dyDescent="0.15">
       <c r="F67" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="3:37" x14ac:dyDescent="0.15">
       <c r="F68" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="3:37" x14ac:dyDescent="0.15">
       <c r="E70" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -15304,50 +15338,50 @@
     </row>
     <row r="71" spans="3:37" x14ac:dyDescent="0.15">
       <c r="F71" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF71" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="3:37" x14ac:dyDescent="0.15">
       <c r="F72" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="3:37" x14ac:dyDescent="0.15">
       <c r="F73" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="3:37" x14ac:dyDescent="0.15">
       <c r="C76" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="3:37" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="3:37" x14ac:dyDescent="0.15">
       <c r="D78" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="3:37" x14ac:dyDescent="0.15">
       <c r="D79" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C81" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D82" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.15">
@@ -15355,43 +15389,43 @@
         <v>73</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E84" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E87" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D91" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E92" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E93" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E94" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -15433,22 +15467,22 @@
   <sheetData>
     <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="43" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -15456,22 +15490,22 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
